--- a/plan.xlsx
+++ b/plan.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsier\My Files\Godot Projects\rts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EFD03B2-9F56-4307-8D83-9633ACC1E316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0285443-C9C4-4DC6-ACEB-B2CAE07E7265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{028CAA17-B123-4588-B3ED-94590C6C0B29}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{028CAA17-B123-4588-B3ED-94590C6C0B29}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
-    <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
+    <sheet name="Projekt" sheetId="1" r:id="rId1"/>
+    <sheet name="Kinga" sheetId="5" r:id="rId2"/>
+    <sheet name="Tomek" sheetId="6" r:id="rId3"/>
+    <sheet name="Pawel" sheetId="2" r:id="rId4"/>
+    <sheet name="Ola" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="62">
   <si>
     <t>Serwer</t>
   </si>
@@ -213,7 +216,16 @@
     <t>SEMESTR</t>
   </si>
   <si>
-    <t>Cały projekt z arkusza1</t>
+    <t>Działanie gry w kliencie</t>
+  </si>
+  <si>
+    <t>Komunikacja klient-serwer</t>
+  </si>
+  <si>
+    <t>Działanie gry na serwerze</t>
+  </si>
+  <si>
+    <t>Menu, system kont i baza danych</t>
   </si>
 </sst>
 </file>
@@ -221,7 +233,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -262,12 +274,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -753,7 +764,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" t="s">
         <v>53</v>
       </c>
       <c r="C16" t="s">
@@ -770,7 +781,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" t="s">
         <v>54</v>
       </c>
       <c r="C17" t="s">
@@ -813,11 +824,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE64AA88-18D8-4DC3-8D14-872B35F37D19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A3FB86-83CF-42FD-94BA-C135E7558409}">
   <dimension ref="A2:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -839,7 +850,7 @@
       <c r="A3" s="1">
         <v>45579</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>3.5416666666666666E-2</v>
       </c>
       <c r="C3" t="s">
@@ -850,7 +861,7 @@
       <c r="A4" s="1">
         <v>45586</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>0.15902777777777777</v>
       </c>
       <c r="C4" t="s">
@@ -864,7 +875,7 @@
       <c r="A5" s="1">
         <v>45593</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" t="s">
@@ -878,7 +889,7 @@
       <c r="A6" s="1">
         <v>45600</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>0</v>
       </c>
       <c r="C6" t="s">
@@ -895,7 +906,7 @@
       <c r="A7" s="1">
         <v>45614</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>0</v>
       </c>
       <c r="C7" t="s">
@@ -912,7 +923,7 @@
       <c r="A8" s="1">
         <v>45621</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>0</v>
       </c>
     </row>
@@ -920,7 +931,7 @@
       <c r="A9" s="1">
         <v>45628</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>0</v>
       </c>
     </row>
@@ -928,7 +939,7 @@
       <c r="A10" s="1">
         <v>45635</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>0</v>
       </c>
     </row>
@@ -936,7 +947,7 @@
       <c r="A11" s="1">
         <v>45670</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>0</v>
       </c>
     </row>
@@ -944,7 +955,7 @@
       <c r="A12" s="1">
         <v>45677</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>0</v>
       </c>
     </row>
@@ -952,7 +963,7 @@
       <c r="A13" s="1">
         <v>45684</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>0</v>
       </c>
     </row>
@@ -960,7 +971,7 @@
       <c r="A14" s="1">
         <v>45688</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>0</v>
       </c>
     </row>
@@ -968,7 +979,7 @@
       <c r="A15" s="1">
         <v>45692</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>0</v>
       </c>
     </row>
@@ -976,12 +987,555 @@
       <c r="A16" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <f>SUM(B3:B15)</f>
         <v>0.19444444444444442</v>
       </c>
       <c r="C16" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF817EC-F8E8-43D0-97B6-A09F53E8D94B}">
+  <dimension ref="A2:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="3" max="5" width="38.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45579</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3.5416666666666666E-2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45586</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.15902777777777777</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45593</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45600</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45614</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45621</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45628</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45670</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45677</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45684</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45688</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45692</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="3">
+        <f>SUM(B3:B15)</f>
+        <v>0.19444444444444442</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE64AA88-18D8-4DC3-8D14-872B35F37D19}">
+  <dimension ref="A2:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="3" max="5" width="38.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45579</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3.5416666666666666E-2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45586</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.15902777777777777</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45593</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45600</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45614</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45621</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45628</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45670</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45677</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45684</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45688</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45692</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="3">
+        <f>SUM(B3:B15)</f>
+        <v>0.19444444444444442</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2568B29A-3717-4C51-996E-6DAE52D68242}">
+  <dimension ref="A2:E20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="3" max="5" width="38.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45579</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3.5416666666666666E-2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45586</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.15902777777777777</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45593</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45600</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45614</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45621</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45628</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45670</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45677</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45684</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45688</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45692</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="3">
+        <f>SUM(B3:B15)</f>
+        <v>0.19444444444444442</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsier\My Files\Godot Projects\rts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0285443-C9C4-4DC6-ACEB-B2CAE07E7265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EBE847-0BF0-4B8D-ABD5-4FECC4C0A041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{028CAA17-B123-4588-B3ED-94590C6C0B29}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{028CAA17-B123-4588-B3ED-94590C6C0B29}"/>
   </bookViews>
   <sheets>
     <sheet name="Projekt" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="96">
   <si>
     <t>Serwer</t>
   </si>
@@ -165,30 +165,9 @@
     <t>Ten excel</t>
   </si>
   <si>
-    <t>Pierwszy testowy projekt w godocie</t>
-  </si>
-  <si>
-    <t>Rozwój projektu</t>
-  </si>
-  <si>
-    <t>Prosta pierwsza baza danych</t>
-  </si>
-  <si>
     <t>Czytanie inputów, reakcje</t>
   </si>
   <si>
-    <t xml:space="preserve">Dodawanie/przechodzenie między scenami </t>
-  </si>
-  <si>
-    <t>Prosta pierwsza komunikacja klient-serwer</t>
-  </si>
-  <si>
-    <t>Menu, GUI</t>
-  </si>
-  <si>
-    <t>Podział pracy, rozwój planu tygodniowego</t>
-  </si>
-  <si>
     <t>GUI</t>
   </si>
   <si>
@@ -226,6 +205,129 @@
   </si>
   <si>
     <t>Menu, system kont i baza danych</t>
+  </si>
+  <si>
+    <t>Pojawianie pierwszych elementów</t>
+  </si>
+  <si>
+    <t>Pierwsza mapa i ruch kamerą</t>
+  </si>
+  <si>
+    <t>Pierwsze GUI</t>
+  </si>
+  <si>
+    <t>Zaznaczanie jednostek/budynków</t>
+  </si>
+  <si>
+    <t>Sygnał o ruchu jednostek</t>
+  </si>
+  <si>
+    <t>Rozwój GUI</t>
+  </si>
+  <si>
+    <t>Jednostki i budynki</t>
+  </si>
+  <si>
+    <t>Więcej jednostek i budynków</t>
+  </si>
+  <si>
+    <t>Podsumowanie surowców</t>
+  </si>
+  <si>
+    <t>Wizualizacja mgły wojny</t>
+  </si>
+  <si>
+    <t>Ruch jednostek</t>
+  </si>
+  <si>
+    <t>Wyświetlanie stanu zdrowia</t>
+  </si>
+  <si>
+    <t>Sygnał o ataku</t>
+  </si>
+  <si>
+    <t>Ostatnie szlify</t>
+  </si>
+  <si>
+    <t>Przesyłanie czegoś między serwerem a klientem</t>
+  </si>
+  <si>
+    <t>Tworzenie bazy danych</t>
+  </si>
+  <si>
+    <t>Menu logowania</t>
+  </si>
+  <si>
+    <t>Sygnały o tworzeniu konta, logowaniu</t>
+  </si>
+  <si>
+    <t>Zapis do/odczyt z bazy danych</t>
+  </si>
+  <si>
+    <t>Sól i hashowanie hasła</t>
+  </si>
+  <si>
+    <t>Zabezpieczenia SQL-injection</t>
+  </si>
+  <si>
+    <t>Sprawdzanie loginu/hasła</t>
+  </si>
+  <si>
+    <t>Przechowywanie mapy</t>
+  </si>
+  <si>
+    <t>Przechowywanie surowców</t>
+  </si>
+  <si>
+    <t>Przyzywanie jednostek/budynków</t>
+  </si>
+  <si>
+    <t>Przechowywanie jednostek/budynków</t>
+  </si>
+  <si>
+    <t>Zachowanie jednostek</t>
+  </si>
+  <si>
+    <t>Ruch + atak</t>
+  </si>
+  <si>
+    <t>Sygnały o pozycji jednostek</t>
+  </si>
+  <si>
+    <t>Sygnały o ogólnych informacjach</t>
+  </si>
+  <si>
+    <t>Definiowanie, który gracz otrzymuje informacje</t>
+  </si>
+  <si>
+    <t>Przesyłanie logowania/tworzenia konta</t>
+  </si>
+  <si>
+    <t>Przesyłanie przyzywania jednostek/budynków</t>
+  </si>
+  <si>
+    <t>Przesyłanie ruchu jednostek</t>
+  </si>
+  <si>
+    <t>Przesyłanie pozycji jednostek</t>
+  </si>
+  <si>
+    <t>Przesyłanie ogólnych informacji</t>
+  </si>
+  <si>
+    <t>Surowce, życie itp.</t>
+  </si>
+  <si>
+    <t>Zabezpieczenia przesyłania danych logowania</t>
+  </si>
+  <si>
+    <t>Szyfrowane połączenie</t>
+  </si>
+  <si>
+    <t>Lag compensation</t>
+  </si>
+  <si>
+    <t>Dokumentacja programu</t>
   </si>
 </sst>
 </file>
@@ -274,11 +376,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -692,7 +797,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -747,7 +852,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
@@ -765,7 +870,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
@@ -774,7 +879,7 @@
         <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
         <v>37</v>
@@ -782,7 +887,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
         <v>31</v>
@@ -791,7 +896,7 @@
         <v>32</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
         <v>34</v>
@@ -825,549 +930,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A3FB86-83CF-42FD-94BA-C135E7558409}">
-  <dimension ref="A2:E20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="5" width="38.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>45579</v>
-      </c>
-      <c r="B3" s="3">
-        <v>3.5416666666666666E-2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>45586</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.15902777777777777</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>45593</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>45600</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>45614</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>45621</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>45628</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>45635</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>45670</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>45677</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>45684</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>45688</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>45692</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="3">
-        <f>SUM(B3:B15)</f>
-        <v>0.19444444444444442</v>
-      </c>
-      <c r="C16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF817EC-F8E8-43D0-97B6-A09F53E8D94B}">
-  <dimension ref="A2:E20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="5" width="38.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>45579</v>
-      </c>
-      <c r="B3" s="3">
-        <v>3.5416666666666666E-2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>45586</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.15902777777777777</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>45593</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>45600</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>45614</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>45621</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>45628</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>45635</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>45670</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>45677</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>45684</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>45688</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>45692</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="3">
-        <f>SUM(B3:B15)</f>
-        <v>0.19444444444444442</v>
-      </c>
-      <c r="C16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE64AA88-18D8-4DC3-8D14-872B35F37D19}">
-  <dimension ref="A2:E20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="5" width="38.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>45579</v>
-      </c>
-      <c r="B3" s="3">
-        <v>3.5416666666666666E-2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>45586</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.15902777777777777</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>45593</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>45600</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>45614</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>45621</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>45628</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>45635</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>45670</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>45677</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>45684</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>45688</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>45692</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="3">
-        <f>SUM(B3:B15)</f>
-        <v>0.19444444444444442</v>
-      </c>
-      <c r="C16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2568B29A-3717-4C51-996E-6DAE52D68242}">
   <dimension ref="A2:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1386,7 +948,7 @@
         <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1397,7 +959,7 @@
         <v>3.5416666666666666E-2</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1424,9 +986,6 @@
       <c r="C5" t="s">
         <v>41</v>
       </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -1436,13 +995,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1453,13 +1009,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1469,6 +1022,12 @@
       <c r="B8" s="3">
         <v>0</v>
       </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -1477,6 +1036,12 @@
       <c r="B9" s="3">
         <v>0</v>
       </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -1485,6 +1050,15 @@
       <c r="B10" s="3">
         <v>0</v>
       </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -1493,6 +1067,9 @@
       <c r="B11" s="3">
         <v>0</v>
       </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -1501,6 +1078,9 @@
       <c r="B12" s="3">
         <v>0</v>
       </c>
+      <c r="C12" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -1509,6 +1089,9 @@
       <c r="B13" s="3">
         <v>0</v>
       </c>
+      <c r="C13" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -1517,6 +1100,7 @@
       <c r="B14" s="3">
         <v>0</v>
       </c>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -1525,23 +1109,619 @@
       <c r="B15" s="3">
         <v>0</v>
       </c>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B16" s="3">
         <f>SUM(B3:B15)</f>
         <v>0.19444444444444442</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C13:C15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF817EC-F8E8-43D0-97B6-A09F53E8D94B}">
+  <dimension ref="A2:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="3" max="5" width="38.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45579</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3.5416666666666666E-2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45586</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.15902777777777777</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45593</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45600</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45614</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45621</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45628</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45670</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45677</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45684</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45688</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45692</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="3">
+        <f>SUM(B3:B15)</f>
+        <v>0.19444444444444442</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE64AA88-18D8-4DC3-8D14-872B35F37D19}">
+  <dimension ref="A2:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="3" max="5" width="38.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45579</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3.5416666666666666E-2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45586</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.15902777777777777</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45593</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45600</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45614</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45621</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45628</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45670</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45677</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45684</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45688</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45692</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="3">
+        <f>SUM(B3:B15)</f>
+        <v>0.19444444444444442</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C13:C15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2568B29A-3717-4C51-996E-6DAE52D68242}">
+  <dimension ref="A2:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="3" max="5" width="38.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45579</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3.5416666666666666E-2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45586</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.15902777777777777</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45593</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45600</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45614</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45621</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45628</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45670</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45677</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45684</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45688</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45692</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="3">
+        <f>SUM(B3:B15)</f>
+        <v>0.19444444444444442</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
